--- a/docs/PT2ov/PT2ov1_08.11.2024_output.xlsx
+++ b/docs/PT2ov/PT2ov1_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,279 +505,331 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731080997.7568913</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731080998.5341115</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731080997.7568913.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731080998.5341115.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7134.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731081000.925037</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731081001.9215572</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081000.925037.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081001.9215572.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7094</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7076</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>18</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731081002.4055092</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731081004.4551854</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081002.4055092.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081004.4551854.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7084</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7100.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-16.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731081017.890287</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731081018.3574414</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081017.890287.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081018.3574414.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7084.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7066</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>18.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731081018.823125</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731081018.823125.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731081018.823125.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7075.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7075.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,1861 +837,2203 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731081030.7241917</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731081030.823373</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081030.7241917.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081030.823373.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>474.2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>474.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731081030.8814974</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731081033.3354025</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081030.8814974.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081033.3354025.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>474.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>473.65</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731081041.5530603</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731081042.180214</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081041.5530603.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081042.180214.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>475</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>475.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731081043.6379855</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731081046.1697636</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081043.6379855.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081046.1697636.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>476.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>474.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.800000000000011</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731081053.6734216</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731081054.9677885</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081053.6734216.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081054.9677885.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>929.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>926.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731081055.9687653</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731081057.9969697</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081055.9687653.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081057.9969697.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>926.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>931</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-4.399999999999977</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731081063.6125786</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731081066.4378934</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081063.6125786.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081066.4378934.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>934</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>933.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731081067.7333841</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731081069.0843768</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081067.7333841.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081069.0843768.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>933.6</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>934</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731081069.5407474</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731081071.1772323</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081069.5407474.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081071.1772323.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>932.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>931.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731081071.1919117</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731081071.8520424</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081071.1919117.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081071.8520424.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>931.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>930.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731081073.4242418</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731081074.9449284</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081073.4242418.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081074.9449284.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>130.16</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731081079.5898917</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731081079.644362</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081079.5898917.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081079.644362.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.52</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731081079.7399104</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731081081.0398824</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081079.7399104.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081081.0398824.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731081081.5363212</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731081082.0100932</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081081.5363212.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081082.0100932.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731081088.9051905</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731081091.7611592</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081088.9051905.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081091.7611592.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>130.18</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>130.08</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731081093.3027663</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731081094.6593072</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081093.3027663.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081094.6593072.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>130.18</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>130.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731081095.138486</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731081096.9180036</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081095.138486.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081096.9180036.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>130.3</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.12</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731081107.9612386</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731081108.0165825</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081107.9612386.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081108.0165825.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>37.725</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>37.71</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731081108.072133</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731081110.130153</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081108.072133.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081110.130153.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>37.745</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>37.905</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1600000000000037</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731081111.6604156</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731081113.947835</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081111.6604156.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081113.947835.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>37.815</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>37.9</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731081115.7593696</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731081115.8634553</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081115.7593696.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081115.8634553.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.955</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>38.005</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731081115.9997714</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731081118.8862126</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081115.9997714.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081118.8862126.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>37.975</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>38.035</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731081119.2839656</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731081119.3833613</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081119.2839656.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081119.3833613.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>38.05</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.07</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731081120.6768255</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731081123.6376052</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081120.6768255.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081123.6376052.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.075</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.01</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.06500000000000483</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731081129.136047</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731081129.9397342</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081129.136047.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081129.9397342.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1184</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1190</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731081131.0810368</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731081132.8447573</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081131.0810368.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081132.8447573.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1184.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1183.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.399999999999864</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731081142.917476</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731081144.318372</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081142.917476.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081144.318372.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1189.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.8000000000001819</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731081145.1760619</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731081145.5676699</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081145.1760619.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081145.5676699.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1189.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1190.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731081146.8666525</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731081148.5446372</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081146.8666525.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081148.5446372.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1190.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1191</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731081152.9006886</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731081153.6152997</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081152.9006886.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081153.6152997.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>78.73</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>78.83</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731081153.7496674</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731081157.7386656</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081153.7496674.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081157.7386656.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>78.93000000000001</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731081159.8405793</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731081161.4849596</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081159.8405793.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081161.4849596.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>78.33</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.1799999999999926</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731081168.4001925</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731081171.0169997</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081168.4001925.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081171.0169997.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>78.48</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>78.59</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731081173.6997051</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731081176.669336</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081173.6997051.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081176.669336.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>78.73</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>78.66</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.07000000000000739</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731081179.895057</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731081180.8228383</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081179.895057.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081180.8228383.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>103.39</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>103.31</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731081182.6061215</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731081182.6622124</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081182.6061215.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081182.6622124.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>103.16</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>103.07</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731081182.9256947</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731081183.594535</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081182.9256947.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081183.594535.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>103.12</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>102.86</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731081183.692548</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731081183.7485704</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081183.692548.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081183.7485704.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>103.05</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>103.05</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,433 +3041,514 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731081185.3924918</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731081187.452571</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081185.3924918.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081187.452571.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>102.19</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>102.2</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731081195.2837937</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731081196.5876057</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081195.2837937.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081196.5876057.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>102.98</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>102.99</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731081199.4984853</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731081200.8884854</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081199.4984853.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081200.8884854.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>103.07</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>103.16</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731081201.526582</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731081203.1142097</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081201.526582.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081203.1142097.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>103.21</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>103.06</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.1499999999999915</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731081212.155173</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731081213.8892229</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081212.155173.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081213.8892229.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2738.3</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2736.5</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731081214.6661406</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731081216.311088</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081214.6661406.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081216.311088.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2741.85</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2745.15</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-3.300000000000182</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731081221.3464146</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731081224.1628249</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081221.3464146.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081224.1628249.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2748.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2750.85</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>2.25</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731081226.4247108</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731081227.2589865</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081226.4247108.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081227.2589865.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2750.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2753.75</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>3.25</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731081230.9314542</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731081230.9314542.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731081230.9314542.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J54" t="n">
-        <v>2745.15</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>2744.45</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7000000000002728</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,6 +3586,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3109,6 +3614,15 @@
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.04625000000000057</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3122,6 +3636,15 @@
       <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.0007142857142850646</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3135,6 +3658,15 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.005714285714292698</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.04000000000000005</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3148,6 +3680,15 @@
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.3333333333333523</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3161,6 +3702,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.480000000000018</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3174,6 +3724,15 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3182,11 +3741,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.700000000000273</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.9400000000000546</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3200,6 +3768,15 @@
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.06399999999999864</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3213,6 +3790,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.2125000000000057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3226,6 +3812,11 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
